--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1523.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1523.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.194156127862133</v>
+        <v>2.153521299362183</v>
       </c>
       <c r="B1">
-        <v>1.826423475689858</v>
+        <v>5.941781997680664</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.237406492233276</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>0.246417224407196</v>
       </c>
       <c r="E1">
-        <v>1.05330446700374</v>
+        <v>0.3339578211307526</v>
       </c>
     </row>
   </sheetData>
